--- a/Analyse_Risques_Biens.xlsx
+++ b/Analyse_Risques_Biens.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\richa\IHAC020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aduchene\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4C6C832-9E2C-4C0B-8E34-503BECF92707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C4B649-6E89-4D47-B7F9-FB0B6978C767}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="739" xr2:uid="{ED21B914-AA1D-4C67-AAFD-CC56BF8B1E1A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="739" activeTab="2" xr2:uid="{ED21B914-AA1D-4C67-AAFD-CC56BF8B1E1A}"/>
   </bookViews>
   <sheets>
     <sheet name="RISQUES_BIENS" sheetId="1" r:id="rId1"/>
@@ -28,35 +28,24 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">RISQUES_ATTAQUES!$A$2:$I$52</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RISQUES_BIENS!$A$2:$D$34</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -71,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="93">
   <si>
     <t>Bien essentiel</t>
   </si>
@@ -1095,7 +1084,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1342,6 +1331,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1368,9 +1363,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1408,7 +1403,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1514,7 +1509,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1656,7 +1651,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1666,18 +1661,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D51D76A8-0C1E-416B-B888-B8DD02EEFCB6}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="60.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="51.5703125" customWidth="1"/>
+    <col min="1" max="1" width="60.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="51.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="89" t="s">
         <v>0</v>
       </c>
@@ -1687,7 +1682,7 @@
       <c r="C1" s="88"/>
       <c r="D1" s="88"/>
     </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="90"/>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -1699,7 +1694,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
@@ -1713,7 +1708,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>5</v>
       </c>
@@ -1727,7 +1722,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
         <v>5</v>
       </c>
@@ -1741,7 +1736,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
         <v>5</v>
       </c>
@@ -1751,7 +1746,7 @@
       </c>
       <c r="D6" s="20"/>
     </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
         <v>5</v>
       </c>
@@ -1761,7 +1756,7 @@
       </c>
       <c r="D7" s="20"/>
     </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
         <v>12</v>
       </c>
@@ -1775,7 +1770,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
         <v>12</v>
       </c>
@@ -1789,7 +1784,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
         <v>12</v>
       </c>
@@ -1803,7 +1798,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
         <v>12</v>
       </c>
@@ -1813,7 +1808,7 @@
       </c>
       <c r="D11" s="22"/>
     </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="23" t="s">
         <v>17</v>
       </c>
@@ -1827,7 +1822,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
         <v>20</v>
       </c>
@@ -1841,7 +1836,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
         <v>20</v>
       </c>
@@ -1855,7 +1850,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
         <v>20</v>
       </c>
@@ -1869,7 +1864,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
         <v>20</v>
       </c>
@@ -1883,7 +1878,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
         <v>20</v>
       </c>
@@ -1893,7 +1888,7 @@
       </c>
       <c r="D17" s="22"/>
     </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
         <v>20</v>
       </c>
@@ -1903,7 +1898,7 @@
       </c>
       <c r="D18" s="22"/>
     </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
         <v>22</v>
       </c>
@@ -1917,7 +1912,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
         <v>22</v>
       </c>
@@ -1931,7 +1926,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
         <v>22</v>
       </c>
@@ -1943,7 +1938,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
         <v>22</v>
       </c>
@@ -1955,7 +1950,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="17" t="s">
         <v>24</v>
       </c>
@@ -1969,7 +1964,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="17" t="s">
         <v>24</v>
       </c>
@@ -1981,7 +1976,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="17" t="s">
         <v>24</v>
       </c>
@@ -1991,7 +1986,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="17" t="s">
         <v>25</v>
       </c>
@@ -2005,7 +2000,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="17" t="s">
         <v>25</v>
       </c>
@@ -2019,7 +2014,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="17" t="s">
         <v>25</v>
       </c>
@@ -2029,7 +2024,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="17" t="s">
         <v>26</v>
       </c>
@@ -2043,7 +2038,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="17" t="s">
         <v>26</v>
       </c>
@@ -2055,7 +2050,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="17" t="s">
         <v>26</v>
       </c>
@@ -2067,7 +2062,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="17" t="s">
         <v>26</v>
       </c>
@@ -2079,7 +2074,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="17" t="s">
         <v>26</v>
       </c>
@@ -2089,7 +2084,7 @@
       </c>
       <c r="D33" s="22"/>
     </row>
-    <row r="34" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="24" t="s">
         <v>26</v>
       </c>
@@ -2121,17 +2116,17 @@
       <selection pane="bottomRight" activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="91" t="s">
         <v>27</v>
       </c>
@@ -2146,7 +2141,7 @@
       <c r="H1" s="91"/>
       <c r="I1" s="91"/>
     </row>
-    <row r="2" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="91"/>
       <c r="B2" s="4">
         <v>1</v>
@@ -2173,7 +2168,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>6</v>
       </c>
@@ -2190,7 +2185,7 @@
       </c>
       <c r="I3" s="68"/>
     </row>
-    <row r="4" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -2205,7 +2200,7 @@
       </c>
       <c r="I4" s="69"/>
     </row>
-    <row r="5" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
@@ -2220,7 +2215,7 @@
       <c r="H5" s="70"/>
       <c r="I5" s="69"/>
     </row>
-    <row r="6" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
@@ -2239,7 +2234,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -2254,7 +2249,7 @@
       <c r="H7" s="70"/>
       <c r="I7" s="69"/>
     </row>
-    <row r="8" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -2269,7 +2264,7 @@
       </c>
       <c r="I8" s="69"/>
     </row>
-    <row r="9" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>6</v>
       </c>
@@ -2284,7 +2279,7 @@
       </c>
       <c r="I9" s="69"/>
     </row>
-    <row r="10" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>7</v>
       </c>
@@ -2301,7 +2296,7 @@
       </c>
       <c r="I10" s="69"/>
     </row>
-    <row r="11" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>7</v>
       </c>
@@ -2316,7 +2311,7 @@
       </c>
       <c r="I11" s="69"/>
     </row>
-    <row r="12" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>8</v>
       </c>
@@ -2329,7 +2324,7 @@
       <c r="H12" s="70"/>
       <c r="I12" s="69"/>
     </row>
-    <row r="13" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>9</v>
       </c>
@@ -2344,7 +2339,7 @@
       </c>
       <c r="I13" s="69"/>
     </row>
-    <row r="14" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>10</v>
       </c>
@@ -2359,7 +2354,7 @@
       </c>
       <c r="I14" s="69"/>
     </row>
-    <row r="15" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -2374,7 +2369,7 @@
       </c>
       <c r="I15" s="69"/>
     </row>
-    <row r="16" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>10</v>
       </c>
@@ -2391,7 +2386,7 @@
       </c>
       <c r="I16" s="69"/>
     </row>
-    <row r="17" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>10</v>
       </c>
@@ -2409,7 +2404,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>10</v>
       </c>
@@ -2424,7 +2419,7 @@
       <c r="H18" s="83"/>
       <c r="I18" s="69"/>
     </row>
-    <row r="19" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>10</v>
       </c>
@@ -2439,7 +2434,7 @@
       </c>
       <c r="I19" s="69"/>
     </row>
-    <row r="20" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>11</v>
       </c>
@@ -2454,7 +2449,7 @@
       </c>
       <c r="I20" s="69"/>
     </row>
-    <row r="21" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>11</v>
       </c>
@@ -2471,7 +2466,7 @@
       </c>
       <c r="I21" s="69"/>
     </row>
-    <row r="22" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>13</v>
       </c>
@@ -2488,7 +2483,7 @@
       </c>
       <c r="I22" s="69"/>
     </row>
-    <row r="23" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>13</v>
       </c>
@@ -2503,7 +2498,7 @@
       </c>
       <c r="I23" s="69"/>
     </row>
-    <row r="24" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>13</v>
       </c>
@@ -2518,7 +2513,7 @@
       <c r="H24" s="70"/>
       <c r="I24" s="69"/>
     </row>
-    <row r="25" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>13</v>
       </c>
@@ -2533,7 +2528,7 @@
       <c r="H25" s="70"/>
       <c r="I25" s="69"/>
     </row>
-    <row r="26" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>13</v>
       </c>
@@ -2548,7 +2543,7 @@
       </c>
       <c r="I26" s="69"/>
     </row>
-    <row r="27" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>13</v>
       </c>
@@ -2563,7 +2558,7 @@
       </c>
       <c r="I27" s="69"/>
     </row>
-    <row r="28" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>14</v>
       </c>
@@ -2578,7 +2573,7 @@
       </c>
       <c r="I28" s="69"/>
     </row>
-    <row r="29" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>14</v>
       </c>
@@ -2595,7 +2590,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>15</v>
       </c>
@@ -2610,7 +2605,7 @@
       <c r="H30" s="70"/>
       <c r="I30" s="69"/>
     </row>
-    <row r="31" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>15</v>
       </c>
@@ -2627,7 +2622,7 @@
       </c>
       <c r="I31" s="69"/>
     </row>
-    <row r="32" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>16</v>
       </c>
@@ -2642,7 +2637,7 @@
       <c r="H32" s="70"/>
       <c r="I32" s="69"/>
     </row>
-    <row r="33" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>16</v>
       </c>
@@ -2659,7 +2654,7 @@
       </c>
       <c r="I33" s="69"/>
     </row>
-    <row r="34" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>16</v>
       </c>
@@ -2674,7 +2669,7 @@
       <c r="H34" s="70"/>
       <c r="I34" s="69"/>
     </row>
-    <row r="35" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>18</v>
       </c>
@@ -2689,7 +2684,7 @@
       </c>
       <c r="I35" s="69"/>
     </row>
-    <row r="36" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>18</v>
       </c>
@@ -2706,7 +2701,7 @@
       </c>
       <c r="I36" s="69"/>
     </row>
-    <row r="37" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>18</v>
       </c>
@@ -2721,7 +2716,7 @@
       <c r="H37" s="70"/>
       <c r="I37" s="69"/>
     </row>
-    <row r="38" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>18</v>
       </c>
@@ -2735,7 +2730,7 @@
       </c>
       <c r="I38" s="69"/>
     </row>
-    <row r="39" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>18</v>
       </c>
@@ -2758,7 +2753,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>19</v>
       </c>
@@ -2777,7 +2772,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>19</v>
       </c>
@@ -2792,7 +2787,7 @@
       </c>
       <c r="I41" s="69"/>
     </row>
-    <row r="42" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>19</v>
       </c>
@@ -2807,7 +2802,7 @@
       <c r="H42" s="70"/>
       <c r="I42" s="69"/>
     </row>
-    <row r="43" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>21</v>
       </c>
@@ -2822,7 +2817,7 @@
       </c>
       <c r="I43" s="69"/>
     </row>
-    <row r="44" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>21</v>
       </c>
@@ -2845,7 +2840,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>21</v>
       </c>
@@ -2862,7 +2857,7 @@
       <c r="H45" s="70"/>
       <c r="I45" s="69"/>
     </row>
-    <row r="46" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>21</v>
       </c>
@@ -2881,7 +2876,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A47" s="59" t="s">
         <v>21</v>
       </c>
@@ -2896,7 +2891,7 @@
       <c r="H47" s="70"/>
       <c r="I47" s="62"/>
     </row>
-    <row r="48" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A48" s="59" t="s">
         <v>21</v>
       </c>
@@ -2911,7 +2906,7 @@
       </c>
       <c r="I48" s="62"/>
     </row>
-    <row r="49" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
         <v>23</v>
       </c>
@@ -2924,7 +2919,7 @@
       <c r="H49" s="65"/>
       <c r="I49" s="63"/>
     </row>
-    <row r="50" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50"/>
       <c r="B50"/>
       <c r="C50"/>
@@ -2934,7 +2929,7 @@
       <c r="G50"/>
       <c r="H50"/>
     </row>
-    <row r="51" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51"/>
       <c r="B51"/>
       <c r="C51"/>
@@ -2944,7 +2939,7 @@
       <c r="G51"/>
       <c r="H51"/>
     </row>
-    <row r="52" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52"/>
       <c r="B52"/>
       <c r="C52"/>
@@ -2981,22 +2976,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE9FA89-B4E4-410A-A585-7D71F59AF31F}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="26.88671875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" style="3" customWidth="1"/>
     <col min="3" max="3" width="13" style="46" customWidth="1"/>
-    <col min="4" max="4" width="70.85546875" style="28" customWidth="1"/>
+    <col min="4" max="4" width="70.88671875" style="28" customWidth="1"/>
     <col min="5" max="5" width="92" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="11.42578125" style="3"/>
+    <col min="6" max="6" width="17.109375" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="11.44140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>41</v>
       </c>
@@ -3013,8 +3008,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:5" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="92" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -3030,156 +3025,154 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="93"/>
+      <c r="B3" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="42">
+        <v>3</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B4" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="42">
+      <c r="C4" s="42">
         <v>7</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D4" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E4" s="31" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B5" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="42">
+      <c r="C5" s="42">
         <v>3</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D5" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E5" s="33" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+    <row r="6" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B6" s="6" t="s">
         <v>55</v>
-      </c>
-      <c r="C5" s="42">
-        <v>7</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="C6" s="42">
         <v>7</v>
       </c>
       <c r="D6" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="42">
+        <v>7</v>
+      </c>
+      <c r="D7" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E7" s="31" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B8" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="42">
+      <c r="C8" s="42">
         <v>2</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D8" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="E8" s="33" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
+    <row r="9" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B9" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C9" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D9" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="E8" s="35" t="s">
+      <c r="E9" s="35" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B10" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="42">
+      <c r="C10" s="42">
         <v>1</v>
       </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
+      <c r="D10" s="29"/>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B11" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="44">
+      <c r="C11" s="44">
         <v>2</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D11" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="E10" s="38" t="s">
+      <c r="E11" s="38" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11" s="42">
-        <v>3</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="E11" s="33" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>40</v>
       </c>
@@ -3196,7 +3189,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="30" t="s">
         <v>78</v>
       </c>
@@ -3209,7 +3202,7 @@
       <c r="D13" s="34"/>
       <c r="E13" s="35"/>
     </row>
-    <row r="14" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>36</v>
       </c>
@@ -3227,28 +3220,37 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{E617A275-4802-4654-AB43-D6834EC2BE63}"/>
-    <hyperlink ref="E8" r:id="rId2" xr:uid="{25CFEF1E-B97A-417E-9F44-5C55E2411346}"/>
-    <hyperlink ref="E5" r:id="rId3" xr:uid="{295A2F21-5915-4CA4-9B4E-A381296ECBA8}"/>
-    <hyperlink ref="E6" r:id="rId4" xr:uid="{23B9912B-006E-4812-9823-14EA8AABBD29}"/>
-    <hyperlink ref="E4" r:id="rId5" xr:uid="{C86C77BB-246C-4104-963C-64FC96C7E3F3}"/>
-    <hyperlink ref="E10" r:id="rId6" display="https://www.ionos.fr/digitalguide/serveur/securite/arp-spoofing-attaques-du-reseau-interne/" xr:uid="{9DC0751B-6B85-435A-B0DB-012EA551DE80}"/>
-    <hyperlink ref="E11" r:id="rId7" xr:uid="{DF81A7BB-A0D2-4B98-ABF9-306DDE34149C}"/>
-    <hyperlink ref="E3" r:id="rId8" xr:uid="{D4A5647D-796B-46F1-B1D4-501D6A7F0B63}"/>
-    <hyperlink ref="E12" r:id="rId9" xr:uid="{74F3AE45-97AF-4D61-ACA5-2869D7D50118}"/>
-    <hyperlink ref="E7" r:id="rId10" xr:uid="{1D87A09C-6C9D-488C-8BA6-8354AA8B7A7F}"/>
-    <hyperlink ref="E14" r:id="rId11" location=":~:text=Le%20Clickjacking%20est%20un%20type,le%20clic%20semble%20assez%20inoffensif" xr:uid="{E36E6F26-D3E8-460D-8158-690D117872E0}"/>
+    <hyperlink ref="E9" r:id="rId2" xr:uid="{25CFEF1E-B97A-417E-9F44-5C55E2411346}"/>
+    <hyperlink ref="E6" r:id="rId3" xr:uid="{295A2F21-5915-4CA4-9B4E-A381296ECBA8}"/>
+    <hyperlink ref="E7" r:id="rId4" xr:uid="{23B9912B-006E-4812-9823-14EA8AABBD29}"/>
+    <hyperlink ref="E5" r:id="rId5" xr:uid="{C86C77BB-246C-4104-963C-64FC96C7E3F3}"/>
+    <hyperlink ref="E11" r:id="rId6" display="https://www.ionos.fr/digitalguide/serveur/securite/arp-spoofing-attaques-du-reseau-interne/" xr:uid="{9DC0751B-6B85-435A-B0DB-012EA551DE80}"/>
+    <hyperlink ref="E4" r:id="rId7" xr:uid="{D4A5647D-796B-46F1-B1D4-501D6A7F0B63}"/>
+    <hyperlink ref="E12" r:id="rId8" xr:uid="{74F3AE45-97AF-4D61-ACA5-2869D7D50118}"/>
+    <hyperlink ref="E8" r:id="rId9" xr:uid="{1D87A09C-6C9D-488C-8BA6-8354AA8B7A7F}"/>
+    <hyperlink ref="E14" r:id="rId10" location=":~:text=Le%20Clickjacking%20est%20un%20type,le%20clic%20semble%20assez%20inoffensif" xr:uid="{E36E6F26-D3E8-460D-8158-690D117872E0}"/>
+    <hyperlink ref="E3" r:id="rId11" xr:uid="{C566C97A-D6B6-43A6-B4A0-4426C9F31926}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{935CB2F2-617C-45D5-AC5E-E48012DA5C7B}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{96A30121-27E9-4F8A-985D-C50C8F65D657}">
           <x14:formula1>
             <xm:f>BASE_INFORMATION!$C$2:$C999</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A8</xm:sqref>
+          <xm:sqref>A2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{020B46D2-22FF-4842-A964-E5500225E2AC}">
+          <x14:formula1>
+            <xm:f>BASE_INFORMATION!$C$2:$C1000</xm:f>
+          </x14:formula1>
+          <xm:sqref>A4:A9</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3264,14 +3266,14 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="105.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="105.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.140625" style="28" customWidth="1"/>
-    <col min="3" max="16384" width="105.85546875" style="28"/>
+    <col min="2" max="2" width="56.109375" style="28" customWidth="1"/>
+    <col min="3" max="16384" width="105.88671875" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="48" t="s">
         <v>84</v>
       </c>
@@ -3279,122 +3281,134 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="str" cm="1">
-        <f t="array" ref="A2:A14">_xlfn.ANCHORARRAY(BASE_INFORMATION!C3)</f>
-        <v>DNS Server Spoofing</v>
-      </c>
-      <c r="B2" s="53" t="str" cm="1">
-        <f t="array" ref="B2">_xlfn.TEXTJOIN(";",1,_xlfn.UNIQUE(_xlfn.TOCOL(IF(RISQUES_ATTAQUES!B$3:I$49=ETIQUETTES_ATTAQUES!A2,RISQUES_ATTAQUES!A$3:A$49,""))))</f>
-        <v>Usurpation;Escalade de privilège;Dégradation de privilèges;Dégradation / limitation;Déni de services;Divulgation des informations chiffrées</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="54" t="str">
-        <v>Cookie hijacking</v>
-      </c>
-      <c r="B3" s="55" t="str" cm="1">
-        <f t="array" ref="B3">_xlfn.TEXTJOIN(";",1,_xlfn.UNIQUE(_xlfn.TOCOL(IF(RISQUES_ATTAQUES!B$3:I$49=ETIQUETTES_ATTAQUES!A3,RISQUES_ATTAQUES!A$3:A$49,""))))</f>
-        <v>Usurpation;Escalade de privilège;Contournement;Divulgation des informations chiffrées;Observation</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="54" t="str">
-        <v>DHCP Client Spoofing</v>
-      </c>
-      <c r="B4" s="55" t="str" cm="1">
-        <f t="array" ref="B4">_xlfn.TEXTJOIN(";",1,_xlfn.UNIQUE(_xlfn.TOCOL(IF(RISQUES_ATTAQUES!B$3:I$49=ETIQUETTES_ATTAQUES!A4,RISQUES_ATTAQUES!A$3:A$49,""))))</f>
-        <v>Usurpation</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="54" t="str">
-        <v>Brute force de mots de passe</v>
-      </c>
-      <c r="B5" s="55" t="str" cm="1">
-        <f t="array" ref="B5">_xlfn.TEXTJOIN(";",1,_xlfn.UNIQUE(_xlfn.TOCOL(IF(RISQUES_ATTAQUES!B$3:I$49=ETIQUETTES_ATTAQUES!A5,RISQUES_ATTAQUES!A$3:A$49,""))))</f>
-        <v>Usurpation;Escalade de privilège;Divulgation des informations chiffrées;Observation</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="63" x14ac:dyDescent="0.25">
-      <c r="A6" s="54" t="str">
-        <v>SQL Injection</v>
-      </c>
-      <c r="B6" s="55" t="str" cm="1">
-        <f t="array" ref="B6">_xlfn.TEXTJOIN(";",1,_xlfn.UNIQUE(_xlfn.TOCOL(IF(RISQUES_ATTAQUES!B$3:I$49=ETIQUETTES_ATTAQUES!A6,RISQUES_ATTAQUES!A$3:A$49,""))))</f>
-        <v>Usurpation;Destruction;Escalade de privilège;Dégradation de privilèges;Contournement;Reproduction;Divulgation des informations chiffrées;Inaccessibilité des informations chiffrées;Observation</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="54" t="str">
-        <v>Vlan hopping</v>
-      </c>
-      <c r="B7" s="55" t="str" cm="1">
-        <f t="array" ref="B7">_xlfn.TEXTJOIN(";",1,_xlfn.UNIQUE(_xlfn.TOCOL(IF(RISQUES_ATTAQUES!B$3:I$49=ETIQUETTES_ATTAQUES!A7,RISQUES_ATTAQUES!A$3:A$49,""))))</f>
-        <v>Usurpation;Escalade de privilège;Contournement;Dégradation / limitation;Déni de services;Observation</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="56" t="str">
-        <v>Keylogger</v>
-      </c>
-      <c r="B8" s="57" t="str" cm="1">
-        <f t="array" ref="B8">_xlfn.TEXTJOIN(";",1,_xlfn.UNIQUE(_xlfn.TOCOL(IF(RISQUES_ATTAQUES!B$3:I$49=ETIQUETTES_ATTAQUES!A8,RISQUES_ATTAQUES!A$3:A$49,""))))</f>
-        <v>Atteinte à la réputation/image;Contournement;Reproduction;Inaccessibilité des informations chiffrées;Observation</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="58" t="str">
-        <v>EM Flood</v>
-      </c>
-      <c r="B9" s="57" t="str" cm="1">
-        <f t="array" ref="B9">_xlfn.TEXTJOIN(";",1,_xlfn.UNIQUE(_xlfn.TOCOL(IF(RISQUES_ATTAQUES!B$3:I$49=ETIQUETTES_ATTAQUES!A9,RISQUES_ATTAQUES!A$3:A$49,""))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="58" t="str">
-        <v>ARPSPOOFING</v>
-      </c>
-      <c r="B10" s="57" t="str" cm="1">
-        <f t="array" ref="B10">_xlfn.TEXTJOIN(";",1,_xlfn.UNIQUE(_xlfn.TOCOL(IF(RISQUES_ATTAQUES!B$3:I$49=ETIQUETTES_ATTAQUES!A10,RISQUES_ATTAQUES!A$3:A$49,""))))</f>
-        <v>Contournement;Déni de services;Divulgation des informations chiffrées</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="58" t="str">
-        <v>DNS Spoofing</v>
-      </c>
-      <c r="B11" s="57" t="str" cm="1">
-        <f t="array" ref="B11">_xlfn.TEXTJOIN(";",1,_xlfn.UNIQUE(_xlfn.TOCOL(IF(RISQUES_ATTAQUES!B$3:I$49=ETIQUETTES_ATTAQUES!A11,RISQUES_ATTAQUES!A$3:A$49,""))))</f>
-        <v>Usurpation;Escalade de privilège;Dégradation de privilèges</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="85" t="str">
-        <v>nmap XMAS attack</v>
-      </c>
-      <c r="B12" s="57" t="str" cm="1">
-        <f t="array" ref="B12">_xlfn.TEXTJOIN(";",1,_xlfn.UNIQUE(_xlfn.TOCOL(IF(RISQUES_ATTAQUES!B$3:I$49=ETIQUETTES_ATTAQUES!A12,RISQUES_ATTAQUES!A$3:A$49,""))))</f>
-        <v>Inaccessibilité des informations chiffrées;Observation</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="86" t="str">
-        <v>DNS Poisoninng</v>
-      </c>
-      <c r="B13" s="57" t="str" cm="1">
-        <f t="array" ref="B13">_xlfn.TEXTJOIN(";",1,_xlfn.UNIQUE(_xlfn.TOCOL(IF(RISQUES_ATTAQUES!B$3:I$49=ETIQUETTES_ATTAQUES!A13,RISQUES_ATTAQUES!A$3:A$49,""))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="87" t="str">
-        <v>CLICKJACKING</v>
-      </c>
-      <c r="B14" s="84" t="str" cm="1">
-        <f t="array" ref="B14">_xlfn.TEXTJOIN(";",1,_xlfn.UNIQUE(_xlfn.TOCOL(IF(RISQUES_ATTAQUES!B$3:I$49=ETIQUETTES_ATTAQUES!A14,RISQUES_ATTAQUES!A$3:A$49,""))))</f>
-        <v>Usurpation;Atteinte à la réputation/image;Escalade de privilège;Contournement</v>
+    <row r="2" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="52" t="e" cm="1">
+        <f t="array" aca="1" ref="A2:A14" ca="1">_xlfn.ANCHORARRAY(BASE_INFORMATION!C3)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="B2" s="53" t="e" cm="1">
+        <f t="array" aca="1" ref="B2" ca="1">_xlfn.TEXTJOIN(";",1,_xlfn.UNIQUE(_xlfn.TOCOL(IF(RISQUES_ATTAQUES!B$3:I$49=ETIQUETTES_ATTAQUES!A2,RISQUES_ATTAQUES!A$3:A$49,""))))</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="54" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="B3" s="55" t="e" cm="1">
+        <f t="array" aca="1" ref="B3" ca="1">_xlfn.TEXTJOIN(";",1,_xlfn.UNIQUE(_xlfn.TOCOL(IF(RISQUES_ATTAQUES!B$3:I$49=ETIQUETTES_ATTAQUES!A3,RISQUES_ATTAQUES!A$3:A$49,""))))</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="54" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="B4" s="55" t="e" cm="1">
+        <f t="array" aca="1" ref="B4" ca="1">_xlfn.TEXTJOIN(";",1,_xlfn.UNIQUE(_xlfn.TOCOL(IF(RISQUES_ATTAQUES!B$3:I$49=ETIQUETTES_ATTAQUES!A4,RISQUES_ATTAQUES!A$3:A$49,""))))</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="54" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="B5" s="55" t="e" cm="1">
+        <f t="array" aca="1" ref="B5" ca="1">_xlfn.TEXTJOIN(";",1,_xlfn.UNIQUE(_xlfn.TOCOL(IF(RISQUES_ATTAQUES!B$3:I$49=ETIQUETTES_ATTAQUES!A5,RISQUES_ATTAQUES!A$3:A$49,""))))</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="54" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="B6" s="55" t="e" cm="1">
+        <f t="array" aca="1" ref="B6" ca="1">_xlfn.TEXTJOIN(";",1,_xlfn.UNIQUE(_xlfn.TOCOL(IF(RISQUES_ATTAQUES!B$3:I$49=ETIQUETTES_ATTAQUES!A6,RISQUES_ATTAQUES!A$3:A$49,""))))</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="54" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="B7" s="55" t="e" cm="1">
+        <f t="array" aca="1" ref="B7" ca="1">_xlfn.TEXTJOIN(";",1,_xlfn.UNIQUE(_xlfn.TOCOL(IF(RISQUES_ATTAQUES!B$3:I$49=ETIQUETTES_ATTAQUES!A7,RISQUES_ATTAQUES!A$3:A$49,""))))</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="56" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="B8" s="57" t="e" cm="1">
+        <f t="array" aca="1" ref="B8" ca="1">_xlfn.TEXTJOIN(";",1,_xlfn.UNIQUE(_xlfn.TOCOL(IF(RISQUES_ATTAQUES!B$3:I$49=ETIQUETTES_ATTAQUES!A8,RISQUES_ATTAQUES!A$3:A$49,""))))</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="58" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="B9" s="57" t="e" cm="1">
+        <f t="array" aca="1" ref="B9" ca="1">_xlfn.TEXTJOIN(";",1,_xlfn.UNIQUE(_xlfn.TOCOL(IF(RISQUES_ATTAQUES!B$3:I$49=ETIQUETTES_ATTAQUES!A9,RISQUES_ATTAQUES!A$3:A$49,""))))</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="58" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="B10" s="57" t="e" cm="1">
+        <f t="array" aca="1" ref="B10" ca="1">_xlfn.TEXTJOIN(";",1,_xlfn.UNIQUE(_xlfn.TOCOL(IF(RISQUES_ATTAQUES!B$3:I$49=ETIQUETTES_ATTAQUES!A10,RISQUES_ATTAQUES!A$3:A$49,""))))</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="58" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="B11" s="57" t="e" cm="1">
+        <f t="array" aca="1" ref="B11" ca="1">_xlfn.TEXTJOIN(";",1,_xlfn.UNIQUE(_xlfn.TOCOL(IF(RISQUES_ATTAQUES!B$3:I$49=ETIQUETTES_ATTAQUES!A11,RISQUES_ATTAQUES!A$3:A$49,""))))</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="85" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="B12" s="57" t="e" cm="1">
+        <f t="array" aca="1" ref="B12" ca="1">_xlfn.TEXTJOIN(";",1,_xlfn.UNIQUE(_xlfn.TOCOL(IF(RISQUES_ATTAQUES!B$3:I$49=ETIQUETTES_ATTAQUES!A12,RISQUES_ATTAQUES!A$3:A$49,""))))</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="86" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="B13" s="57" t="e" cm="1">
+        <f t="array" aca="1" ref="B13" ca="1">_xlfn.TEXTJOIN(";",1,_xlfn.UNIQUE(_xlfn.TOCOL(IF(RISQUES_ATTAQUES!B$3:I$49=ETIQUETTES_ATTAQUES!A13,RISQUES_ATTAQUES!A$3:A$49,""))))</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="87" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="B14" s="84" t="e" cm="1">
+        <f t="array" aca="1" ref="B14" ca="1">_xlfn.TEXTJOIN(";",1,_xlfn.UNIQUE(_xlfn.TOCOL(IF(RISQUES_ATTAQUES!B$3:I$49=ETIQUETTES_ATTAQUES!A14,RISQUES_ATTAQUES!A$3:A$49,""))))</f>
+        <v>#NAME?</v>
       </c>
     </row>
   </sheetData>
@@ -3411,14 +3425,14 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.28515625" style="28" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.33203125" style="28" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="49" style="28" customWidth="1"/>
-    <col min="3" max="16384" width="11.42578125" style="28"/>
+    <col min="3" max="16384" width="11.44140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="49" t="s">
         <v>27</v>
       </c>
@@ -3426,7 +3440,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="63" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A2" s="50" t="str" cm="1">
         <f t="array" ref="A2:A15">_xlfn.ANCHORARRAY(BASE_INFORMATION!A3)</f>
         <v>Usurpation</v>
@@ -3436,7 +3450,7 @@
         <v>L'identité et/ou authentification;Structures physiques, logicielles et/ou réseaux;Configurations opérationnelles et/ou de sécurité, sensibles</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A3" s="50" t="str">
         <v>Atteinte à la réputation/image</v>
       </c>
@@ -3445,7 +3459,7 @@
         <v>L'identité et/ou authentification;Processus opérationnels et/ou de sécurité, sensibles;Transmission;Faiblesses connues</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="50" t="str">
         <v>Falsification</v>
       </c>
@@ -3454,7 +3468,7 @@
         <v>L'identité et/ou authentification</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="63" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A5" s="50" t="str">
         <v>Destruction</v>
       </c>
@@ -3463,7 +3477,7 @@
         <v>L'identité et/ou authentification;Structures physiques, logicielles et/ou réseaux;Journalisation et surveillance;Configurations opérationnelles et/ou de sécurité, sensibles</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="78" x14ac:dyDescent="0.3">
       <c r="A6" s="50" t="str">
         <v>Escalade de privilège</v>
       </c>
@@ -3472,7 +3486,7 @@
         <v>L'identité et/ou authentification;Processus opérationnels et/ou de sécurité, sensibles;Structures physiques, logicielles et/ou réseaux;Configurations opérationnelles et/ou de sécurité, sensibles</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="50" t="str">
         <v>Dégradation de privilèges</v>
       </c>
@@ -3481,7 +3495,7 @@
         <v>L'identité et/ou authentification</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="63" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A8" s="50" t="str">
         <v>Contournement</v>
       </c>
@@ -3490,7 +3504,7 @@
         <v>Processus opérationnels et/ou de sécurité, sensibles;Structures physiques, logicielles et/ou réseaux;Transmission;Configurations opérationnelles et/ou de sécurité, sensibles</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="78" x14ac:dyDescent="0.3">
       <c r="A9" s="50" t="str">
         <v>Reproduction</v>
       </c>
@@ -3499,7 +3513,7 @@
         <v>Processus opérationnels et/ou de sécurité, sensibles;Structures physiques, logicielles et/ou réseaux;Journalisation et surveillance;Configurations opérationnelles et/ou de sécurité, sensibles</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A10" s="50" t="str">
         <v>Dégradation / limitation</v>
       </c>
@@ -3508,7 +3522,7 @@
         <v>Processus opérationnels et/ou de sécurité, sensibles;Structures physiques, logicielles et/ou réseaux;Transmission;Faiblesses connues;Journalisation et surveillance;Configurations opérationnelles et/ou de sécurité, sensibles</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="78" x14ac:dyDescent="0.3">
       <c r="A11" s="50" t="str">
         <v>Déni de services</v>
       </c>
@@ -3517,7 +3531,7 @@
         <v>Processus opérationnels et/ou de sécurité, sensibles;Structures physiques, logicielles et/ou réseaux;Transmission;Faiblesses connues;Configurations opérationnelles et/ou de sécurité, sensibles</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="50" t="str">
         <v>Divulgation des informations chiffrées</v>
       </c>
@@ -3526,7 +3540,7 @@
         <v>Clefs de chiffrement</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="50" t="str">
         <v>Inaccessibilité des informations chiffrées</v>
       </c>
@@ -3535,7 +3549,7 @@
         <v>Clefs de chiffrement</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="78" x14ac:dyDescent="0.3">
       <c r="A14" s="50" t="str">
         <v>Observation</v>
       </c>
@@ -3544,7 +3558,7 @@
         <v>Structures physiques, logicielles et/ou réseaux;Transmission;Faiblesses connues;Journalisation et surveillance;Configurations opérationnelles et/ou de sécurité, sensibles</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A15" s="50" t="str">
         <v>Obfuscation</v>
       </c>
@@ -3567,17 +3581,17 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" style="28" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" style="28" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33" style="28" customWidth="1"/>
-    <col min="3" max="3" width="46.140625" style="28" customWidth="1"/>
-    <col min="4" max="4" width="69.5703125" customWidth="1"/>
-    <col min="5" max="5" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.109375" style="28" customWidth="1"/>
+    <col min="4" max="4" width="69.5546875" customWidth="1"/>
+    <col min="5" max="5" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="48" t="s">
         <v>87</v>
       </c>
@@ -3591,229 +3605,241 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="str" cm="1">
-        <f t="array" ref="A2:A14">_xlfn.ANCHORARRAY(BASE_INFORMATION!D3)</f>
-        <v>dns-spoof</v>
-      </c>
-      <c r="B2" s="76" t="str" cm="1">
-        <f t="array" ref="B2">_xlfn.TEXTJOIN(";",1,_xlfn.UNIQUE(_xlfn.TOCOL(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(";",1,IF(ATTAQUES_OUTILS!B$2:B$8=A2,ATTAQUES_OUTILS!A$2:A$8,"")),";"))))</f>
-        <v>DNS Server Spoofing</v>
-      </c>
-      <c r="C2" s="76" t="str" cm="1">
-        <f t="array" ref="C2">_xlfn.TEXTJOIN(";",1,_xlfn.UNIQUE(_xlfn.TOCOL(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(";",1,VLOOKUP(_xlfn.TEXTSPLIT(B2,";"),ETIQUETTES_ATTAQUES!A$2:B$8,2,FALSE)),";"))))</f>
-        <v>Usurpation;Escalade de privilège;Dégradation de privilèges;Dégradation / limitation;Déni de services;Divulgation des informations chiffrées</v>
-      </c>
-      <c r="D2" s="77" t="str" cm="1">
-        <f t="array" ref="D2">_xlfn.TEXTJOIN(";",1,_xlfn.UNIQUE(_xlfn.TOCOL(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(";",1,VLOOKUP(_xlfn.TEXTSPLIT(C2,";"),ETIQUETTES_RISQUES!A$2:B$15,2,FALSE)),";"))))</f>
-        <v>L'identité et/ou authentification;Structures physiques, logicielles et/ou réseaux;Configurations opérationnelles et/ou de sécurité, sensibles;Processus opérationnels et/ou de sécurité, sensibles;Transmission;Faiblesses connues;Journalisation et surveillance;Clefs de chiffrement</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="78" t="str">
-        <v>sessionlist</v>
-      </c>
-      <c r="B3" s="74" t="str" cm="1">
-        <f t="array" ref="B3">_xlfn.TEXTJOIN(";",1,_xlfn.UNIQUE(_xlfn.TOCOL(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(";",1,IF(ATTAQUES_OUTILS!B$2:B$8=A3,ATTAQUES_OUTILS!A$2:A$8,"")),";"))))</f>
-        <v>Cookie hijacking</v>
-      </c>
-      <c r="C3" s="74" t="str" cm="1">
-        <f t="array" ref="C3">_xlfn.TEXTJOIN(";",1,_xlfn.UNIQUE(_xlfn.TOCOL(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(";",1,VLOOKUP(_xlfn.TEXTSPLIT(B3,";"),ETIQUETTES_ATTAQUES!A$2:B$8,2,FALSE)),";"))))</f>
-        <v>Usurpation;Escalade de privilège;Contournement;Divulgation des informations chiffrées;Observation</v>
-      </c>
-      <c r="D3" s="79" t="str" cm="1">
-        <f t="array" ref="D3">_xlfn.TEXTJOIN(";",1,_xlfn.UNIQUE(_xlfn.TOCOL(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(";",1,VLOOKUP(_xlfn.TEXTSPLIT(C3,";"),ETIQUETTES_RISQUES!A$2:B$15,2,FALSE)),";"))))</f>
-        <v>L'identité et/ou authentification;Structures physiques, logicielles et/ou réseaux;Configurations opérationnelles et/ou de sécurité, sensibles;Processus opérationnels et/ou de sécurité, sensibles;Transmission;Clefs de chiffrement;Faiblesses connues;Journalisation et surveillance</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="str">
-        <v>dhcpoptinj</v>
-      </c>
-      <c r="B4" s="74" t="str" cm="1">
-        <f t="array" ref="B4">_xlfn.TEXTJOIN(";",1,_xlfn.UNIQUE(_xlfn.TOCOL(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(";",1,IF(ATTAQUES_OUTILS!B$2:B$8=A4,ATTAQUES_OUTILS!A$2:A$8,"")),";"))))</f>
-        <v>DHCP Client Spoofing</v>
-      </c>
-      <c r="C4" s="74" t="str" cm="1">
-        <f t="array" ref="C4">_xlfn.TEXTJOIN(";",1,_xlfn.UNIQUE(_xlfn.TOCOL(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(";",1,VLOOKUP(_xlfn.TEXTSPLIT(B4,";"),ETIQUETTES_ATTAQUES!A$2:B$8,2,FALSE)),";"))))</f>
-        <v>Usurpation</v>
-      </c>
-      <c r="D4" s="79" t="str" cm="1">
-        <f t="array" ref="D4">_xlfn.TEXTJOIN(";",1,_xlfn.UNIQUE(_xlfn.TOCOL(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(";",1,VLOOKUP(_xlfn.TEXTSPLIT(C4,";"),ETIQUETTES_RISQUES!A$2:B$15,2,FALSE)),";"))))</f>
-        <v>L'identité et/ou authentification;Structures physiques, logicielles et/ou réseaux;Configurations opérationnelles et/ou de sécurité, sensibles</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="80" t="str">
-        <v>Hydra</v>
-      </c>
-      <c r="B5" s="74" t="str" cm="1">
-        <f t="array" ref="B5">_xlfn.TEXTJOIN(";",1,_xlfn.UNIQUE(_xlfn.TOCOL(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(";",1,IF(ATTAQUES_OUTILS!B$2:B$8=A5,ATTAQUES_OUTILS!A$2:A$8,"")),";"))))</f>
-        <v>Brute force de mots de passe</v>
-      </c>
-      <c r="C5" s="74" t="str" cm="1">
-        <f t="array" ref="C5">_xlfn.TEXTJOIN(";",1,_xlfn.UNIQUE(_xlfn.TOCOL(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(";",1,VLOOKUP(_xlfn.TEXTSPLIT(B5,";"),ETIQUETTES_ATTAQUES!A$2:B$8,2,FALSE)),";"))))</f>
-        <v>Usurpation;Escalade de privilège;Divulgation des informations chiffrées;Observation</v>
-      </c>
-      <c r="D5" s="79" t="str" cm="1">
-        <f t="array" ref="D5">_xlfn.TEXTJOIN(";",1,_xlfn.UNIQUE(_xlfn.TOCOL(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(";",1,VLOOKUP(_xlfn.TEXTSPLIT(C5,";"),ETIQUETTES_RISQUES!A$2:B$15,2,FALSE)),";"))))</f>
-        <v>L'identité et/ou authentification;Structures physiques, logicielles et/ou réseaux;Configurations opérationnelles et/ou de sécurité, sensibles;Processus opérationnels et/ou de sécurité, sensibles;Clefs de chiffrement;Transmission;Faiblesses connues;Journalisation et surveillance</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="80" t="str">
-        <v>sqlmap</v>
-      </c>
-      <c r="B6" s="74" t="str" cm="1">
-        <f t="array" ref="B6">_xlfn.TEXTJOIN(";",1,_xlfn.UNIQUE(_xlfn.TOCOL(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(";",1,IF(ATTAQUES_OUTILS!B$2:B$8=A6,ATTAQUES_OUTILS!A$2:A$8,"")),";"))))</f>
-        <v>SQL Injection</v>
-      </c>
-      <c r="C6" s="74" t="str" cm="1">
-        <f t="array" ref="C6">_xlfn.TEXTJOIN(";",1,_xlfn.UNIQUE(_xlfn.TOCOL(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(";",1,VLOOKUP(_xlfn.TEXTSPLIT(B6,";"),ETIQUETTES_ATTAQUES!A$2:B$8,2,FALSE)),";"))))</f>
-        <v>Usurpation;Destruction;Escalade de privilège;Dégradation de privilèges;Contournement;Reproduction;Divulgation des informations chiffrées;Inaccessibilité des informations chiffrées;Observation</v>
-      </c>
-      <c r="D6" s="79" t="str" cm="1">
-        <f t="array" ref="D6">_xlfn.TEXTJOIN(";",1,_xlfn.UNIQUE(_xlfn.TOCOL(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(";",1,VLOOKUP(_xlfn.TEXTSPLIT(C6,";"),ETIQUETTES_RISQUES!A$2:B$15,2,FALSE)),";"))))</f>
-        <v>L'identité et/ou authentification;Structures physiques, logicielles et/ou réseaux;Configurations opérationnelles et/ou de sécurité, sensibles;Journalisation et surveillance;Processus opérationnels et/ou de sécurité, sensibles;Transmission;Clefs de chiffrement;Faiblesses connues</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="80" t="str">
-        <v>dns spoof</v>
-      </c>
-      <c r="B7" s="74" t="str" cm="1">
-        <f t="array" ref="B7">_xlfn.TEXTJOIN(";",1,_xlfn.UNIQUE(_xlfn.TOCOL(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(";",1,IF(ATTAQUES_OUTILS!B$2:B$8=A7,ATTAQUES_OUTILS!A$2:A$8,"")),";"))))</f>
-        <v>Vlan hopping</v>
-      </c>
-      <c r="C7" s="74" t="str" cm="1">
-        <f t="array" ref="C7">_xlfn.TEXTJOIN(";",1,_xlfn.UNIQUE(_xlfn.TOCOL(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(";",1,VLOOKUP(_xlfn.TEXTSPLIT(B7,";"),ETIQUETTES_ATTAQUES!A$2:B$8,2,FALSE)),";"))))</f>
-        <v>Usurpation;Escalade de privilège;Contournement;Dégradation / limitation;Déni de services;Observation</v>
-      </c>
-      <c r="D7" s="79" t="str" cm="1">
-        <f t="array" ref="D7">_xlfn.TEXTJOIN(";",1,_xlfn.UNIQUE(_xlfn.TOCOL(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(";",1,VLOOKUP(_xlfn.TEXTSPLIT(C7,";"),ETIQUETTES_RISQUES!A$2:B$15,2,FALSE)),";"))))</f>
-        <v>L'identité et/ou authentification;Structures physiques, logicielles et/ou réseaux;Configurations opérationnelles et/ou de sécurité, sensibles;Processus opérationnels et/ou de sécurité, sensibles;Transmission;Faiblesses connues;Journalisation et surveillance</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="80" t="str">
-        <v>ardamax</v>
-      </c>
-      <c r="B8" s="74" t="str" cm="1">
-        <f t="array" ref="B8">_xlfn.TEXTJOIN(";",1,_xlfn.UNIQUE(_xlfn.TOCOL(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(";",1,IF(ATTAQUES_OUTILS!B$2:B$8=A8,ATTAQUES_OUTILS!A$2:A$8,"")),";"))))</f>
-        <v>Keylogger</v>
-      </c>
-      <c r="C8" s="74" t="str" cm="1">
-        <f t="array" ref="C8">_xlfn.TEXTJOIN(";",1,_xlfn.UNIQUE(_xlfn.TOCOL(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(";",1,VLOOKUP(_xlfn.TEXTSPLIT(B8,";"),ETIQUETTES_ATTAQUES!A$2:B$8,2,FALSE)),";"))))</f>
-        <v>Atteinte à la réputation/image;Contournement;Reproduction;Inaccessibilité des informations chiffrées;Observation</v>
-      </c>
-      <c r="D8" s="79" t="str" cm="1">
-        <f t="array" ref="D8">_xlfn.TEXTJOIN(";",1,_xlfn.UNIQUE(_xlfn.TOCOL(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(";",1,VLOOKUP(_xlfn.TEXTSPLIT(C8,";"),ETIQUETTES_RISQUES!A$2:B$15,2,FALSE)),";"))))</f>
-        <v>L'identité et/ou authentification;Processus opérationnels et/ou de sécurité, sensibles;Transmission;Faiblesses connues;Structures physiques, logicielles et/ou réseaux;Configurations opérationnelles et/ou de sécurité, sensibles;Journalisation et surveillance;Clefs de chiffrement</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="80" t="str">
-        <v>flood</v>
+    <row r="2" spans="1:4" ht="78" x14ac:dyDescent="0.3">
+      <c r="A2" s="75" t="e" cm="1">
+        <f t="array" aca="1" ref="A2:A14" ca="1">_xlfn.ANCHORARRAY(BASE_INFORMATION!D3)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="B2" s="76" t="e" cm="1">
+        <f t="array" aca="1" ref="B2" ca="1">_xlfn.TEXTJOIN(";",1,_xlfn.UNIQUE(_xlfn.TOCOL(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(";",1,IF(ATTAQUES_OUTILS!B$2:B$9=A2,ATTAQUES_OUTILS!A$2:A$9,"")),";"))))</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C2" s="76" t="e" cm="1">
+        <f t="array" aca="1" ref="C2" ca="1">_xlfn.TEXTJOIN(";",1,_xlfn.UNIQUE(_xlfn.TOCOL(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(";",1,VLOOKUP(_xlfn.TEXTSPLIT(B2,";"),ETIQUETTES_ATTAQUES!A$2:B$8,2,FALSE)),";"))))</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D2" s="77" t="e" cm="1">
+        <f t="array" aca="1" ref="D2" ca="1">_xlfn.TEXTJOIN(";",1,_xlfn.UNIQUE(_xlfn.TOCOL(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(";",1,VLOOKUP(_xlfn.TEXTSPLIT(C2,";"),ETIQUETTES_RISQUES!A$2:B$15,2,FALSE)),";"))))</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="78" x14ac:dyDescent="0.3">
+      <c r="A3" s="78" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="B3" s="74" t="e" cm="1">
+        <f t="array" aca="1" ref="B3" ca="1">_xlfn.TEXTJOIN(";",1,_xlfn.UNIQUE(_xlfn.TOCOL(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(";",1,IF(ATTAQUES_OUTILS!B$2:B$9=A3,ATTAQUES_OUTILS!A$2:A$9,"")),";"))))</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C3" s="74" t="e" cm="1">
+        <f t="array" aca="1" ref="C3" ca="1">_xlfn.TEXTJOIN(";",1,_xlfn.UNIQUE(_xlfn.TOCOL(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(";",1,VLOOKUP(_xlfn.TEXTSPLIT(B3,";"),ETIQUETTES_ATTAQUES!A$2:B$8,2,FALSE)),";"))))</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D3" s="79" t="e" cm="1">
+        <f t="array" aca="1" ref="D3" ca="1">_xlfn.TEXTJOIN(";",1,_xlfn.UNIQUE(_xlfn.TOCOL(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(";",1,VLOOKUP(_xlfn.TEXTSPLIT(C3,";"),ETIQUETTES_RISQUES!A$2:B$15,2,FALSE)),";"))))</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="78" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="B4" s="74" t="e" cm="1">
+        <f t="array" aca="1" ref="B4" ca="1">_xlfn.TEXTJOIN(";",1,_xlfn.UNIQUE(_xlfn.TOCOL(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(";",1,IF(ATTAQUES_OUTILS!B$2:B$9=A4,ATTAQUES_OUTILS!A$2:A$9,"")),";"))))</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C4" s="74" t="e" cm="1">
+        <f t="array" aca="1" ref="C4" ca="1">_xlfn.TEXTJOIN(";",1,_xlfn.UNIQUE(_xlfn.TOCOL(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(";",1,VLOOKUP(_xlfn.TEXTSPLIT(B4,";"),ETIQUETTES_ATTAQUES!A$2:B$8,2,FALSE)),";"))))</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D4" s="79" t="e" cm="1">
+        <f t="array" aca="1" ref="D4" ca="1">_xlfn.TEXTJOIN(";",1,_xlfn.UNIQUE(_xlfn.TOCOL(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(";",1,VLOOKUP(_xlfn.TEXTSPLIT(C4,";"),ETIQUETTES_RISQUES!A$2:B$15,2,FALSE)),";"))))</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="78" x14ac:dyDescent="0.3">
+      <c r="A5" s="80" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="B5" s="74" t="e" cm="1">
+        <f t="array" aca="1" ref="B5" ca="1">_xlfn.TEXTJOIN(";",1,_xlfn.UNIQUE(_xlfn.TOCOL(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(";",1,IF(ATTAQUES_OUTILS!B$2:B$9=A5,ATTAQUES_OUTILS!A$2:A$9,"")),";"))))</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C5" s="74" t="e" cm="1">
+        <f t="array" aca="1" ref="C5" ca="1">_xlfn.TEXTJOIN(";",1,_xlfn.UNIQUE(_xlfn.TOCOL(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(";",1,VLOOKUP(_xlfn.TEXTSPLIT(B5,";"),ETIQUETTES_ATTAQUES!A$2:B$8,2,FALSE)),";"))))</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D5" s="79" t="e" cm="1">
+        <f t="array" aca="1" ref="D5" ca="1">_xlfn.TEXTJOIN(";",1,_xlfn.UNIQUE(_xlfn.TOCOL(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(";",1,VLOOKUP(_xlfn.TEXTSPLIT(C5,";"),ETIQUETTES_RISQUES!A$2:B$15,2,FALSE)),";"))))</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="78" x14ac:dyDescent="0.3">
+      <c r="A6" s="80" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="B6" s="74" t="e" cm="1">
+        <f t="array" aca="1" ref="B6" ca="1">_xlfn.TEXTJOIN(";",1,_xlfn.UNIQUE(_xlfn.TOCOL(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(";",1,IF(ATTAQUES_OUTILS!B$2:B$9=A6,ATTAQUES_OUTILS!A$2:A$9,"")),";"))))</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C6" s="74" t="e" cm="1">
+        <f t="array" aca="1" ref="C6" ca="1">_xlfn.TEXTJOIN(";",1,_xlfn.UNIQUE(_xlfn.TOCOL(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(";",1,VLOOKUP(_xlfn.TEXTSPLIT(B6,";"),ETIQUETTES_ATTAQUES!A$2:B$8,2,FALSE)),";"))))</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D6" s="79" t="e" cm="1">
+        <f t="array" aca="1" ref="D6" ca="1">_xlfn.TEXTJOIN(";",1,_xlfn.UNIQUE(_xlfn.TOCOL(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(";",1,VLOOKUP(_xlfn.TEXTSPLIT(C6,";"),ETIQUETTES_RISQUES!A$2:B$15,2,FALSE)),";"))))</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="80" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="B7" s="74" t="e" cm="1">
+        <f t="array" aca="1" ref="B7" ca="1">_xlfn.TEXTJOIN(";",1,_xlfn.UNIQUE(_xlfn.TOCOL(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(";",1,IF(ATTAQUES_OUTILS!B$2:B$9=A7,ATTAQUES_OUTILS!A$2:A$9,"")),";"))))</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C7" s="74" t="e" cm="1">
+        <f t="array" aca="1" ref="C7" ca="1">_xlfn.TEXTJOIN(";",1,_xlfn.UNIQUE(_xlfn.TOCOL(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(";",1,VLOOKUP(_xlfn.TEXTSPLIT(B7,";"),ETIQUETTES_ATTAQUES!A$2:B$8,2,FALSE)),";"))))</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D7" s="79" t="e" cm="1">
+        <f t="array" aca="1" ref="D7" ca="1">_xlfn.TEXTJOIN(";",1,_xlfn.UNIQUE(_xlfn.TOCOL(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(";",1,VLOOKUP(_xlfn.TEXTSPLIT(C7,";"),ETIQUETTES_RISQUES!A$2:B$15,2,FALSE)),";"))))</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="80" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="B8" s="74" t="e" cm="1">
+        <f t="array" aca="1" ref="B8" ca="1">_xlfn.TEXTJOIN(";",1,_xlfn.UNIQUE(_xlfn.TOCOL(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(";",1,IF(ATTAQUES_OUTILS!B$2:B$9=A8,ATTAQUES_OUTILS!A$2:A$9,"")),";"))))</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C8" s="74" t="e" cm="1">
+        <f t="array" aca="1" ref="C8" ca="1">_xlfn.TEXTJOIN(";",1,_xlfn.UNIQUE(_xlfn.TOCOL(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(";",1,VLOOKUP(_xlfn.TEXTSPLIT(B8,";"),ETIQUETTES_ATTAQUES!A$2:B$8,2,FALSE)),";"))))</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D8" s="79" t="e" cm="1">
+        <f t="array" aca="1" ref="D8" ca="1">_xlfn.TEXTJOIN(";",1,_xlfn.UNIQUE(_xlfn.TOCOL(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(";",1,VLOOKUP(_xlfn.TEXTSPLIT(C8,";"),ETIQUETTES_RISQUES!A$2:B$15,2,FALSE)),";"))))</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="80" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="B9" s="74" t="e" cm="1">
-        <f t="array" ref="B9">_xlfn.TEXTJOIN(";",1,_xlfn.UNIQUE(_xlfn.TOCOL(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(";",1,IF(ATTAQUES_OUTILS!B$2:B$8=A9,ATTAQUES_OUTILS!A$2:A$8,"")),";"))))</f>
-        <v>#VALUE!</v>
+        <f t="array" aca="1" ref="B9" ca="1">_xlfn.TEXTJOIN(";",1,_xlfn.UNIQUE(_xlfn.TOCOL(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(";",1,IF(ATTAQUES_OUTILS!B$2:B$9=A9,ATTAQUES_OUTILS!A$2:A$9,"")),";"))))</f>
+        <v>#NAME?</v>
       </c>
       <c r="C9" s="74" t="e" cm="1">
-        <f t="array" ref="C9">_xlfn.TEXTJOIN(";",1,_xlfn.UNIQUE(_xlfn.TOCOL(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(";",1,VLOOKUP(_xlfn.TEXTSPLIT(B9,";"),ETIQUETTES_ATTAQUES!A$2:B$8,2,FALSE)),";"))))</f>
-        <v>#VALUE!</v>
+        <f t="array" aca="1" ref="C9" ca="1">_xlfn.TEXTJOIN(";",1,_xlfn.UNIQUE(_xlfn.TOCOL(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(";",1,VLOOKUP(_xlfn.TEXTSPLIT(B9,";"),ETIQUETTES_ATTAQUES!A$2:B$8,2,FALSE)),";"))))</f>
+        <v>#NAME?</v>
       </c>
       <c r="D9" s="79" t="e" cm="1">
-        <f t="array" ref="D9">_xlfn.TEXTJOIN(";",1,_xlfn.UNIQUE(_xlfn.TOCOL(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(";",1,VLOOKUP(_xlfn.TEXTSPLIT(C9,";"),ETIQUETTES_RISQUES!A$2:B$15,2,FALSE)),";"))))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="80" t="str">
-        <v>ettercap</v>
+        <f t="array" aca="1" ref="D9" ca="1">_xlfn.TEXTJOIN(";",1,_xlfn.UNIQUE(_xlfn.TOCOL(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(";",1,VLOOKUP(_xlfn.TEXTSPLIT(C9,";"),ETIQUETTES_RISQUES!A$2:B$15,2,FALSE)),";"))))</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="80" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="B10" s="74" t="e" cm="1">
-        <f t="array" ref="B10">_xlfn.TEXTJOIN(";",1,_xlfn.UNIQUE(_xlfn.TOCOL(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(";",1,IF(ATTAQUES_OUTILS!B$2:B$8=A10,ATTAQUES_OUTILS!A$2:A$8,"")),";"))))</f>
-        <v>#VALUE!</v>
+        <f t="array" aca="1" ref="B10" ca="1">_xlfn.TEXTJOIN(";",1,_xlfn.UNIQUE(_xlfn.TOCOL(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(";",1,IF(ATTAQUES_OUTILS!B$2:B$9=A10,ATTAQUES_OUTILS!A$2:A$9,"")),";"))))</f>
+        <v>#NAME?</v>
       </c>
       <c r="C10" s="74" t="e" cm="1">
-        <f t="array" ref="C10">_xlfn.TEXTJOIN(";",1,_xlfn.UNIQUE(_xlfn.TOCOL(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(";",1,VLOOKUP(_xlfn.TEXTSPLIT(B10,";"),ETIQUETTES_ATTAQUES!A$2:B$8,2,FALSE)),";"))))</f>
-        <v>#VALUE!</v>
+        <f t="array" aca="1" ref="C10" ca="1">_xlfn.TEXTJOIN(";",1,_xlfn.UNIQUE(_xlfn.TOCOL(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(";",1,VLOOKUP(_xlfn.TEXTSPLIT(B10,";"),ETIQUETTES_ATTAQUES!A$2:B$8,2,FALSE)),";"))))</f>
+        <v>#NAME?</v>
       </c>
       <c r="D10" s="79" t="e" cm="1">
-        <f t="array" ref="D10">_xlfn.TEXTJOIN(";",1,_xlfn.UNIQUE(_xlfn.TOCOL(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(";",1,VLOOKUP(_xlfn.TEXTSPLIT(C10,";"),ETIQUETTES_RISQUES!A$2:B$15,2,FALSE)),";"))))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="80" t="str">
-        <v>Outils préfabriqués</v>
+        <f t="array" aca="1" ref="D10" ca="1">_xlfn.TEXTJOIN(";",1,_xlfn.UNIQUE(_xlfn.TOCOL(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(";",1,VLOOKUP(_xlfn.TEXTSPLIT(C10,";"),ETIQUETTES_RISQUES!A$2:B$15,2,FALSE)),";"))))</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="80" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="B11" s="74" t="e" cm="1">
-        <f t="array" ref="B11">_xlfn.TEXTJOIN(";",1,_xlfn.UNIQUE(_xlfn.TOCOL(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(";",1,IF(ATTAQUES_OUTILS!B$2:B$8=A11,ATTAQUES_OUTILS!A$2:A$8,"")),";"))))</f>
-        <v>#VALUE!</v>
+        <f t="array" aca="1" ref="B11" ca="1">_xlfn.TEXTJOIN(";",1,_xlfn.UNIQUE(_xlfn.TOCOL(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(";",1,IF(ATTAQUES_OUTILS!B$2:B$9=A11,ATTAQUES_OUTILS!A$2:A$9,"")),";"))))</f>
+        <v>#NAME?</v>
       </c>
       <c r="C11" s="74" t="e" cm="1">
-        <f t="array" ref="C11">_xlfn.TEXTJOIN(";",1,_xlfn.UNIQUE(_xlfn.TOCOL(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(";",1,VLOOKUP(_xlfn.TEXTSPLIT(B11,";"),ETIQUETTES_ATTAQUES!A$2:B$8,2,FALSE)),";"))))</f>
-        <v>#VALUE!</v>
+        <f t="array" aca="1" ref="C11" ca="1">_xlfn.TEXTJOIN(";",1,_xlfn.UNIQUE(_xlfn.TOCOL(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(";",1,VLOOKUP(_xlfn.TEXTSPLIT(B11,";"),ETIQUETTES_ATTAQUES!A$2:B$8,2,FALSE)),";"))))</f>
+        <v>#NAME?</v>
       </c>
       <c r="D11" s="79" t="e" cm="1">
-        <f t="array" ref="D11">_xlfn.TEXTJOIN(";",1,_xlfn.UNIQUE(_xlfn.TOCOL(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(";",1,VLOOKUP(_xlfn.TEXTSPLIT(C11,";"),ETIQUETTES_RISQUES!A$2:B$15,2,FALSE)),";"))))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="80" t="str">
-        <v>NMAP</v>
+        <f t="array" aca="1" ref="D11" ca="1">_xlfn.TEXTJOIN(";",1,_xlfn.UNIQUE(_xlfn.TOCOL(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(";",1,VLOOKUP(_xlfn.TEXTSPLIT(C11,";"),ETIQUETTES_RISQUES!A$2:B$15,2,FALSE)),";"))))</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="80" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="B12" s="74" t="e" cm="1">
-        <f t="array" ref="B12">_xlfn.TEXTJOIN(";",1,_xlfn.UNIQUE(_xlfn.TOCOL(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(";",1,IF(ATTAQUES_OUTILS!B$2:B$8=A12,ATTAQUES_OUTILS!A$2:A$8,"")),";"))))</f>
-        <v>#VALUE!</v>
+        <f t="array" aca="1" ref="B12" ca="1">_xlfn.TEXTJOIN(";",1,_xlfn.UNIQUE(_xlfn.TOCOL(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(";",1,IF(ATTAQUES_OUTILS!B$2:B$9=A12,ATTAQUES_OUTILS!A$2:A$9,"")),";"))))</f>
+        <v>#NAME?</v>
       </c>
       <c r="C12" s="74" t="e" cm="1">
-        <f t="array" ref="C12">_xlfn.TEXTJOIN(";",1,_xlfn.UNIQUE(_xlfn.TOCOL(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(";",1,VLOOKUP(_xlfn.TEXTSPLIT(B12,";"),ETIQUETTES_ATTAQUES!A$2:B$8,2,FALSE)),";"))))</f>
-        <v>#VALUE!</v>
+        <f t="array" aca="1" ref="C12" ca="1">_xlfn.TEXTJOIN(";",1,_xlfn.UNIQUE(_xlfn.TOCOL(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(";",1,VLOOKUP(_xlfn.TEXTSPLIT(B12,";"),ETIQUETTES_ATTAQUES!A$2:B$8,2,FALSE)),";"))))</f>
+        <v>#NAME?</v>
       </c>
       <c r="D12" s="79" t="e" cm="1">
-        <f t="array" ref="D12">_xlfn.TEXTJOIN(";",1,_xlfn.UNIQUE(_xlfn.TOCOL(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(";",1,VLOOKUP(_xlfn.TEXTSPLIT(C12,";"),ETIQUETTES_RISQUES!A$2:B$15,2,FALSE)),";"))))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="81" t="str">
-        <v>dns poisoning</v>
+        <f t="array" aca="1" ref="D12" ca="1">_xlfn.TEXTJOIN(";",1,_xlfn.UNIQUE(_xlfn.TOCOL(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(";",1,VLOOKUP(_xlfn.TEXTSPLIT(C12,";"),ETIQUETTES_RISQUES!A$2:B$15,2,FALSE)),";"))))</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="81" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="B13" s="74" t="e" cm="1">
-        <f t="array" ref="B13">_xlfn.TEXTJOIN(";",1,_xlfn.UNIQUE(_xlfn.TOCOL(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(";",1,IF(ATTAQUES_OUTILS!B$2:B$8=A13,ATTAQUES_OUTILS!A$2:A$8,"")),";"))))</f>
-        <v>#VALUE!</v>
+        <f t="array" aca="1" ref="B13" ca="1">_xlfn.TEXTJOIN(";",1,_xlfn.UNIQUE(_xlfn.TOCOL(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(";",1,IF(ATTAQUES_OUTILS!B$2:B$9=A13,ATTAQUES_OUTILS!A$2:A$9,"")),";"))))</f>
+        <v>#NAME?</v>
       </c>
       <c r="C13" s="74" t="e" cm="1">
-        <f t="array" ref="C13">_xlfn.TEXTJOIN(";",1,_xlfn.UNIQUE(_xlfn.TOCOL(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(";",1,VLOOKUP(_xlfn.TEXTSPLIT(B13,";"),ETIQUETTES_ATTAQUES!A$2:B$8,2,FALSE)),";"))))</f>
-        <v>#VALUE!</v>
+        <f t="array" aca="1" ref="C13" ca="1">_xlfn.TEXTJOIN(";",1,_xlfn.UNIQUE(_xlfn.TOCOL(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(";",1,VLOOKUP(_xlfn.TEXTSPLIT(B13,";"),ETIQUETTES_ATTAQUES!A$2:B$8,2,FALSE)),";"))))</f>
+        <v>#NAME?</v>
       </c>
       <c r="D13" s="79" t="e" cm="1">
-        <f t="array" ref="D13">_xlfn.TEXTJOIN(";",1,_xlfn.UNIQUE(_xlfn.TOCOL(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(";",1,VLOOKUP(_xlfn.TEXTSPLIT(C13,";"),ETIQUETTES_RISQUES!A$2:B$15,2,FALSE)),";"))))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="82" t="str">
-        <v>Page malveillante</v>
+        <f t="array" aca="1" ref="D13" ca="1">_xlfn.TEXTJOIN(";",1,_xlfn.UNIQUE(_xlfn.TOCOL(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(";",1,VLOOKUP(_xlfn.TEXTSPLIT(C13,";"),ETIQUETTES_RISQUES!A$2:B$15,2,FALSE)),";"))))</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="82" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="B14" s="74" t="e" cm="1">
-        <f t="array" ref="B14">_xlfn.TEXTJOIN(";",1,_xlfn.UNIQUE(_xlfn.TOCOL(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(";",1,IF(ATTAQUES_OUTILS!B$2:B$8=A14,ATTAQUES_OUTILS!A$2:A$8,"")),";"))))</f>
-        <v>#VALUE!</v>
+        <f t="array" aca="1" ref="B14" ca="1">_xlfn.TEXTJOIN(";",1,_xlfn.UNIQUE(_xlfn.TOCOL(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(";",1,IF(ATTAQUES_OUTILS!B$2:B$9=A14,ATTAQUES_OUTILS!A$2:A$9,"")),";"))))</f>
+        <v>#NAME?</v>
       </c>
       <c r="C14" s="74" t="e" cm="1">
-        <f t="array" ref="C14">_xlfn.TEXTJOIN(";",1,_xlfn.UNIQUE(_xlfn.TOCOL(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(";",1,VLOOKUP(_xlfn.TEXTSPLIT(B14,";"),ETIQUETTES_ATTAQUES!A$2:B$8,2,FALSE)),";"))))</f>
-        <v>#VALUE!</v>
+        <f t="array" aca="1" ref="C14" ca="1">_xlfn.TEXTJOIN(";",1,_xlfn.UNIQUE(_xlfn.TOCOL(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(";",1,VLOOKUP(_xlfn.TEXTSPLIT(B14,";"),ETIQUETTES_ATTAQUES!A$2:B$8,2,FALSE)),";"))))</f>
+        <v>#NAME?</v>
       </c>
       <c r="D14" s="79" t="e" cm="1">
-        <f t="array" ref="D14">_xlfn.TEXTJOIN(";",1,_xlfn.UNIQUE(_xlfn.TOCOL(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(";",1,VLOOKUP(_xlfn.TEXTSPLIT(C14,";"),ETIQUETTES_RISQUES!A$2:B$15,2,FALSE)),";"))))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <f t="array" aca="1" ref="D14" ca="1">_xlfn.TEXTJOIN(";",1,_xlfn.UNIQUE(_xlfn.TOCOL(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(";",1,VLOOKUP(_xlfn.TEXTSPLIT(C14,";"),ETIQUETTES_RISQUES!A$2:B$15,2,FALSE)),";"))))</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="82"/>
       <c r="B15" s="3"/>
       <c r="C15" s="82"/>
@@ -3833,15 +3859,15 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="44" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="91" t="s">
         <v>27</v>
       </c>
@@ -3855,13 +3881,13 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="91"/>
       <c r="B2" s="90"/>
       <c r="C2" s="90"/>
       <c r="D2" s="90"/>
     </row>
-    <row r="3" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="str" cm="1">
         <f t="array" ref="A3:A16">_xlfn._xlws.FILTER(_xlfn.UNIQUE(_xlfn.TOCOL(RISQUES_BIENS!B3:D34)),_xlfn.UNIQUE(_xlfn.TOCOL(RISQUES_BIENS!B3:D160))&lt;&gt;"","")</f>
         <v>Usurpation</v>
@@ -3869,160 +3895,184 @@
       <c r="B3" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="12" t="str" cm="1">
-        <f t="array" ref="C3:C15">_xlfn._xlws.FILTER(_xlfn.UNIQUE(_xlfn.TOCOL(ATTAQUES_OUTILS!A2:A14)),_xlfn.UNIQUE(_xlfn.TOCOL(ATTAQUES_OUTILS!A2:A14))&lt;&gt;"","")</f>
-        <v>DNS Server Spoofing</v>
-      </c>
-      <c r="D3" s="5" t="str" cm="1">
-        <f t="array" ref="D3:D15">_xlfn._xlws.FILTER(_xlfn.UNIQUE(_xlfn.TOCOL(ATTAQUES_OUTILS!B2:B160)),_xlfn.UNIQUE(_xlfn.TOCOL(ATTAQUES_OUTILS!B2:B160))&lt;&gt;"","")</f>
-        <v>dns-spoof</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C3" s="12" t="e" cm="1">
+        <f t="array" aca="1" ref="C3:C15" ca="1">_xlfn._xlws.FILTER(_xlfn.UNIQUE(_xlfn.TOCOL(ATTAQUES_OUTILS!A2:A14)),_xlfn.UNIQUE(_xlfn.TOCOL(ATTAQUES_OUTILS!A2:A14))&lt;&gt;"","")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D3" s="5" t="e" cm="1">
+        <f t="array" aca="1" ref="D3:D15" ca="1">_xlfn._xlws.FILTER(_xlfn.UNIQUE(_xlfn.TOCOL(ATTAQUES_OUTILS!B2:B160)),_xlfn.UNIQUE(_xlfn.TOCOL(ATTAQUES_OUTILS!B2:B160))&lt;&gt;"","")</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="str">
         <v>Atteinte à la réputation/image</v>
       </c>
       <c r="B4" s="5"/>
-      <c r="C4" s="5" t="str">
-        <v>Cookie hijacking</v>
-      </c>
-      <c r="D4" s="5" t="str">
-        <v>sessionlist</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C4" s="5" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="D4" s="5" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="str">
         <v>Falsification</v>
       </c>
       <c r="B5" s="5"/>
-      <c r="C5" s="5" t="str">
-        <v>DHCP Client Spoofing</v>
-      </c>
-      <c r="D5" s="5" t="str">
-        <v>dhcpoptinj</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C5" s="5" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="D5" s="5" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="str">
         <v>Destruction</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="C6" s="5" t="str">
-        <v>Brute force de mots de passe</v>
-      </c>
-      <c r="D6" s="5" t="str">
-        <v>Hydra</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C6" s="5" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="D6" s="5" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="str">
         <v>Escalade de privilège</v>
       </c>
       <c r="B7" s="5"/>
-      <c r="C7" s="5" t="str">
-        <v>SQL Injection</v>
-      </c>
-      <c r="D7" s="5" t="str">
-        <v>sqlmap</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="5" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="D7" s="5" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="str">
         <v>Dégradation de privilèges</v>
       </c>
       <c r="B8" s="5"/>
-      <c r="C8" s="5" t="str">
-        <v>Vlan hopping</v>
-      </c>
-      <c r="D8" s="5" t="str">
-        <v>dns spoof</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="5" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="D8" s="5" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="str">
         <v>Contournement</v>
       </c>
       <c r="B9" s="5"/>
-      <c r="C9" s="5" t="str">
-        <v>Keylogger</v>
-      </c>
-      <c r="D9" s="5" t="str">
-        <v>ardamax</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="5" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="D9" s="5" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="str">
         <v>Reproduction</v>
       </c>
       <c r="B10" s="5"/>
-      <c r="C10" s="5" t="str">
-        <v>EM Flood</v>
-      </c>
-      <c r="D10" s="5" t="str">
-        <v>flood</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="5" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="D10" s="5" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="str">
         <v>Dégradation / limitation</v>
       </c>
-      <c r="C11" s="5" t="str">
-        <v>ARPSPOOFING</v>
-      </c>
-      <c r="D11" s="5" t="str">
-        <v>ettercap</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="5" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="D11" s="5" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="str">
         <v>Déni de services</v>
       </c>
-      <c r="C12" s="5" t="str">
-        <v>DNS Spoofing</v>
-      </c>
-      <c r="D12" s="5" t="str">
-        <v>Outils préfabriqués</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="5" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="D12" s="5" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="str">
         <v>Divulgation des informations chiffrées</v>
       </c>
-      <c r="C13" s="5" t="str">
-        <v>nmap XMAS attack</v>
-      </c>
-      <c r="D13" s="5" t="str">
-        <v>NMAP</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="5" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="D13" s="5" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="str">
         <v>Inaccessibilité des informations chiffrées</v>
       </c>
-      <c r="C14" s="5" t="str">
-        <v>DNS Poisoninng</v>
-      </c>
-      <c r="D14" s="5" t="str">
-        <v>dns poisoning</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="5" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="D14" s="5" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="str">
         <v>Observation</v>
       </c>
-      <c r="C15" s="5" t="str">
-        <v>CLICKJACKING</v>
-      </c>
-      <c r="D15" s="5" t="str">
-        <v>Page malveillante</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="5" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="D15" s="5" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="str">
         <v>Obfuscation</v>
       </c>
     </row>
-    <row r="17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
@@ -4035,23 +4085,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="33b4685b-0c1f-4593-b65d-aaab1f9cd46a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002AB5614EC90CF447B1A9FFD2C819CD71" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="1a77884e45051b6d17a600e58b936809">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="33b4685b-0c1f-4593-b65d-aaab1f9cd46a" xmlns:ns4="6c775899-9e6c-48f7-9afe-212bca6e2e09" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bb93badaf70ef5dd8335334a303d9825" ns3:_="" ns4:_="">
     <xsd:import namespace="33b4685b-0c1f-4593-b65d-aaab1f9cd46a"/>
@@ -4272,7 +4305,43 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="33b4685b-0c1f-4593-b65d-aaab1f9cd46a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8E602FB-5AAD-4583-813E-0CD4F5F96121}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="33b4685b-0c1f-4593-b65d-aaab1f9cd46a"/>
+    <ds:schemaRef ds:uri="6c775899-9e6c-48f7-9afe-212bca6e2e09"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{028A4A4B-2A4F-4DA3-BB07-2FDE42D03188}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -4289,29 +4358,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67F2EDAF-061D-4A4F-B65A-89CBD4FAF8CF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8E602FB-5AAD-4583-813E-0CD4F5F96121}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="33b4685b-0c1f-4593-b65d-aaab1f9cd46a"/>
-    <ds:schemaRef ds:uri="6c775899-9e6c-48f7-9afe-212bca6e2e09"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>